--- a/Code/Results/Cases/Case_6_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9883709844979485</v>
+        <v>0.9901427086223471</v>
       </c>
       <c r="D2">
-        <v>1.009461003800387</v>
+        <v>1.010888093396193</v>
       </c>
       <c r="E2">
-        <v>0.9958182953826948</v>
+        <v>0.9979380434834761</v>
       </c>
       <c r="F2">
-        <v>0.9977058722339593</v>
+        <v>0.9991973852446785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041190794567186</v>
+        <v>1.041955520227151</v>
       </c>
       <c r="J2">
-        <v>1.010905169356411</v>
+        <v>1.012622300699061</v>
       </c>
       <c r="K2">
-        <v>1.020790086795308</v>
+        <v>1.022197795564904</v>
       </c>
       <c r="L2">
-        <v>1.007336197065379</v>
+        <v>1.009426179579326</v>
       </c>
       <c r="M2">
-        <v>1.00919726069879</v>
+        <v>1.010667913102313</v>
       </c>
       <c r="N2">
-        <v>1.012340770649341</v>
+        <v>1.014060340515456</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9957924433540897</v>
+        <v>0.9950428304474743</v>
       </c>
       <c r="D3">
-        <v>1.015176270769901</v>
+        <v>1.014571573572144</v>
       </c>
       <c r="E3">
-        <v>1.001994386482943</v>
+        <v>1.001862217787436</v>
       </c>
       <c r="F3">
-        <v>1.005514092513552</v>
+        <v>1.00488434801203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043828008737804</v>
+        <v>1.043503716582735</v>
       </c>
       <c r="J3">
-        <v>1.016398471526681</v>
+        <v>1.015669551226479</v>
       </c>
       <c r="K3">
-        <v>1.025618582193923</v>
+        <v>1.025021342458424</v>
       </c>
       <c r="L3">
-        <v>1.012601812207009</v>
+        <v>1.012471326513391</v>
       </c>
       <c r="M3">
-        <v>1.016076902343516</v>
+        <v>1.015455111849014</v>
       </c>
       <c r="N3">
-        <v>1.017841873938782</v>
+        <v>1.017111918488147</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000445379263933</v>
+        <v>0.9981414842691231</v>
       </c>
       <c r="D4">
-        <v>1.018760939614314</v>
+        <v>1.016900747220104</v>
       </c>
       <c r="E4">
-        <v>1.005872509725781</v>
+        <v>1.004350038737378</v>
       </c>
       <c r="F4">
-        <v>1.010413048494853</v>
+        <v>1.00848001822921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045465583561166</v>
+        <v>1.044467459536966</v>
       </c>
       <c r="J4">
-        <v>1.019837699051966</v>
+        <v>1.017592850845283</v>
       </c>
       <c r="K4">
-        <v>1.028638089238611</v>
+        <v>1.026799386154152</v>
       </c>
       <c r="L4">
-        <v>1.015900571688857</v>
+        <v>1.014396244622573</v>
       </c>
       <c r="M4">
-        <v>1.020387400965353</v>
+        <v>1.018477163058646</v>
       </c>
       <c r="N4">
-        <v>1.021285985561639</v>
+        <v>1.019037949413015</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002367793179243</v>
+        <v>0.9994275881543306</v>
       </c>
       <c r="D5">
-        <v>1.020242216881979</v>
+        <v>1.017867382309779</v>
       </c>
       <c r="E5">
-        <v>1.007476138229614</v>
+        <v>1.005384080468601</v>
       </c>
       <c r="F5">
-        <v>1.012437959694347</v>
+        <v>1.009972321965298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046138297217423</v>
+        <v>1.044863746090954</v>
       </c>
       <c r="J5">
-        <v>1.021257430530372</v>
+        <v>1.01839020569076</v>
       </c>
       <c r="K5">
-        <v>1.029883690065452</v>
+        <v>1.027535525595846</v>
       </c>
       <c r="L5">
-        <v>1.017262804452201</v>
+        <v>1.015194974941355</v>
       </c>
       <c r="M5">
-        <v>1.022167656760731</v>
+        <v>1.019730241876034</v>
       </c>
       <c r="N5">
-        <v>1.02270773322159</v>
+        <v>1.01983643659383</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002688656168762</v>
+        <v>0.9996425779974353</v>
       </c>
       <c r="D6">
-        <v>1.020489461699035</v>
+        <v>1.018028961192319</v>
       </c>
       <c r="E6">
-        <v>1.007743869891436</v>
+        <v>1.005557019405498</v>
       </c>
       <c r="F6">
-        <v>1.01277598026032</v>
+        <v>1.010221776997449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0462503478788</v>
+        <v>1.044929770768089</v>
       </c>
       <c r="J6">
-        <v>1.021494318813401</v>
+        <v>1.018523439621192</v>
       </c>
       <c r="K6">
-        <v>1.030091472062363</v>
+        <v>1.02765847159181</v>
       </c>
       <c r="L6">
-        <v>1.017490127159891</v>
+        <v>1.015328480071467</v>
       </c>
       <c r="M6">
-        <v>1.022464752364867</v>
+        <v>1.019939639168907</v>
       </c>
       <c r="N6">
-        <v>1.022944957913152</v>
+        <v>1.019969859731726</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000471196416819</v>
+        <v>0.9981587334909822</v>
       </c>
       <c r="D7">
-        <v>1.018780831736975</v>
+        <v>1.016913712183645</v>
       </c>
       <c r="E7">
-        <v>1.005894040562728</v>
+        <v>1.004363901575464</v>
       </c>
       <c r="F7">
-        <v>1.010440238766771</v>
+        <v>1.008500033294156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045474633208381</v>
+        <v>1.044472789290617</v>
       </c>
       <c r="J7">
-        <v>1.019856770337834</v>
+        <v>1.017603548630259</v>
       </c>
       <c r="K7">
-        <v>1.028654824896569</v>
+        <v>1.02680926660163</v>
       </c>
       <c r="L7">
-        <v>1.015918868678522</v>
+        <v>1.014406958078815</v>
       </c>
       <c r="M7">
-        <v>1.020411311699995</v>
+        <v>1.018493974194566</v>
       </c>
       <c r="N7">
-        <v>1.021305083930921</v>
+        <v>1.019048662390073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9909112955996531</v>
+        <v>0.9918140684774789</v>
       </c>
       <c r="D8">
-        <v>1.011416919284777</v>
+        <v>1.01214445956993</v>
       </c>
       <c r="E8">
-        <v>0.9979310004742598</v>
+        <v>0.9992751626127081</v>
       </c>
       <c r="F8">
-        <v>1.000377823364399</v>
+        <v>1.001137269258672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042096798862777</v>
+        <v>1.042486764743105</v>
       </c>
       <c r="J8">
-        <v>1.012786467473036</v>
+        <v>1.013662421665706</v>
       </c>
       <c r="K8">
-        <v>1.022444430430212</v>
+        <v>1.023162401382751</v>
       </c>
       <c r="L8">
-        <v>1.009139070804073</v>
+        <v>1.010464961241176</v>
       </c>
       <c r="M8">
-        <v>1.011552679223496</v>
+        <v>1.012301857515919</v>
       </c>
       <c r="N8">
-        <v>1.01422474042508</v>
+        <v>1.015101938573176</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9728197714295279</v>
+        <v>0.980049442161243</v>
       </c>
       <c r="D9">
-        <v>0.9974989295118333</v>
+        <v>1.00330324452181</v>
       </c>
       <c r="E9">
-        <v>0.9829152811615924</v>
+        <v>0.9898924244862282</v>
       </c>
       <c r="F9">
-        <v>0.9813639948987168</v>
+        <v>0.9874781513240294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035578687765031</v>
+        <v>1.038684352946695</v>
       </c>
       <c r="J9">
-        <v>0.9993702437587456</v>
+        <v>1.006326924807571</v>
       </c>
       <c r="K9">
-        <v>1.010632715593534</v>
+        <v>1.016342955268444</v>
       </c>
       <c r="L9">
-        <v>0.9962917643759257</v>
+        <v>1.00315164672587</v>
       </c>
       <c r="M9">
-        <v>0.9947668423044239</v>
+        <v>1.000777707239182</v>
       </c>
       <c r="N9">
-        <v>1.000789464134252</v>
+        <v>1.007756024468109</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9597578913816524</v>
+        <v>0.9717640528591683</v>
       </c>
       <c r="D10">
-        <v>0.9874719569607385</v>
+        <v>0.9970829010843785</v>
       </c>
       <c r="E10">
-        <v>0.9721191031471798</v>
+        <v>0.9833243518567072</v>
       </c>
       <c r="F10">
-        <v>0.9676555241027548</v>
+        <v>0.9778504992872183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03079185318016</v>
+        <v>1.0359285826679</v>
       </c>
       <c r="J10">
-        <v>0.98966440106224</v>
+        <v>1.001144532364413</v>
       </c>
       <c r="K10">
-        <v>1.002071154217362</v>
+        <v>1.011505025157865</v>
       </c>
       <c r="L10">
-        <v>0.9870106880833548</v>
+        <v>0.9980013621805262</v>
       </c>
       <c r="M10">
-        <v>0.9826344015353305</v>
+        <v>0.9926315269024951</v>
       </c>
       <c r="N10">
-        <v>0.991069838027842</v>
+        <v>1.002566272433253</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9538211230984517</v>
+        <v>0.9680593020043422</v>
       </c>
       <c r="D11">
-        <v>0.9829222009966572</v>
+        <v>0.994304112813139</v>
       </c>
       <c r="E11">
-        <v>0.9672249712656907</v>
+        <v>0.9803978712627532</v>
       </c>
       <c r="F11">
-        <v>0.9614293631036237</v>
+        <v>0.9735427671223693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028598244271616</v>
+        <v>1.034678659070878</v>
       </c>
       <c r="J11">
-        <v>0.9852496969624186</v>
+        <v>0.9988239828299779</v>
       </c>
       <c r="K11">
-        <v>0.998173529514824</v>
+        <v>1.009334250604887</v>
       </c>
       <c r="L11">
-        <v>0.9827926258290386</v>
+        <v>0.9956991710487914</v>
       </c>
       <c r="M11">
-        <v>0.9771172614891288</v>
+        <v>0.9889814917101416</v>
       </c>
       <c r="N11">
-        <v>0.9866488645418251</v>
+        <v>1.000242427452309</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9515693975508371</v>
+        <v>0.9666644562261266</v>
       </c>
       <c r="D12">
-        <v>0.9811979307811226</v>
+        <v>0.9932583847314193</v>
       </c>
       <c r="E12">
-        <v>0.9653708424888793</v>
+        <v>0.979297690799575</v>
       </c>
       <c r="F12">
-        <v>0.9590685379509845</v>
+        <v>0.9719203927558232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027763668310473</v>
+        <v>1.034205469992529</v>
       </c>
       <c r="J12">
-        <v>0.983574902450626</v>
+        <v>0.9979498506775862</v>
       </c>
       <c r="K12">
-        <v>0.9966944369733809</v>
+        <v>1.008515893306892</v>
       </c>
       <c r="L12">
-        <v>0.9811929772244162</v>
+        <v>0.9948325604978011</v>
       </c>
       <c r="M12">
-        <v>0.9750243035225293</v>
+        <v>0.9876060780914624</v>
       </c>
       <c r="N12">
-        <v>0.9849716916297239</v>
+        <v>0.9993670539319963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9520545832827694</v>
+        <v>0.9669645226126355</v>
       </c>
       <c r="D13">
-        <v>0.981569397691054</v>
+        <v>0.993483323255119</v>
       </c>
       <c r="E13">
-        <v>0.9657702566826996</v>
+        <v>0.9795342915444241</v>
       </c>
       <c r="F13">
-        <v>0.959577202020469</v>
+        <v>0.9722694305155143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02794361079325</v>
+        <v>1.034307380724218</v>
       </c>
       <c r="J13">
-        <v>0.9839357894081453</v>
+        <v>0.9981379175207395</v>
       </c>
       <c r="K13">
-        <v>0.9970131737654</v>
+        <v>1.008691989012472</v>
       </c>
       <c r="L13">
-        <v>0.9815376464636835</v>
+        <v>0.9950189815764756</v>
       </c>
       <c r="M13">
-        <v>0.9754752962571803</v>
+        <v>0.9879020175493338</v>
       </c>
       <c r="N13">
-        <v>0.9853330910881174</v>
+        <v>0.9995553878516382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9536359716503201</v>
+        <v>0.9679443927696735</v>
       </c>
       <c r="D14">
-        <v>0.982780390848632</v>
+        <v>0.9942179537749738</v>
       </c>
       <c r="E14">
-        <v>0.967072468120547</v>
+        <v>0.9803072030203338</v>
       </c>
       <c r="F14">
-        <v>0.9612352274337768</v>
+        <v>0.9734091245565375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02852967143866</v>
+        <v>1.034639729343437</v>
       </c>
       <c r="J14">
-        <v>0.9851119911061779</v>
+        <v>0.9987519793153284</v>
       </c>
       <c r="K14">
-        <v>0.9980519238124933</v>
+        <v>1.009266854269174</v>
       </c>
       <c r="L14">
-        <v>0.9826610874010953</v>
+        <v>0.9956277747389068</v>
       </c>
       <c r="M14">
-        <v>0.9769451726716434</v>
+        <v>0.988868207285618</v>
       </c>
       <c r="N14">
-        <v>0.9865109631274731</v>
+        <v>1.000170321684409</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9546040088317588</v>
+        <v>0.9685456046229908</v>
       </c>
       <c r="D15">
-        <v>0.9835218820384786</v>
+        <v>0.9946687635320537</v>
       </c>
       <c r="E15">
-        <v>0.9678698966781709</v>
+        <v>0.980781652103364</v>
       </c>
       <c r="F15">
-        <v>0.9622502641268093</v>
+        <v>0.9741083292053035</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028888090688433</v>
+        <v>1.034843306868105</v>
       </c>
       <c r="J15">
-        <v>0.9858319519749659</v>
+        <v>0.9991286882878593</v>
       </c>
       <c r="K15">
-        <v>0.9986876906104054</v>
+        <v>1.009619433270691</v>
       </c>
       <c r="L15">
-        <v>0.9833488257777087</v>
+        <v>0.9960013316626809</v>
       </c>
       <c r="M15">
-        <v>0.9778448981222353</v>
+        <v>0.9894608702164929</v>
       </c>
       <c r="N15">
-        <v>0.9872319464232758</v>
+        <v>1.00054756562689</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9601456202040323</v>
+        <v>0.9720073622033283</v>
       </c>
       <c r="D16">
-        <v>0.9877692770254304</v>
+        <v>0.9972654602251355</v>
       </c>
       <c r="E16">
-        <v>0.9724390201229389</v>
+        <v>0.9835167713623931</v>
       </c>
       <c r="F16">
-        <v>0.9680622449123139</v>
+        <v>0.9781333442542871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030934756546386</v>
+        <v>1.036010308922615</v>
       </c>
       <c r="J16">
-        <v>0.9899526668049153</v>
+        <v>1.00129687044237</v>
       </c>
       <c r="K16">
-        <v>1.002325590230416</v>
+        <v>1.011647440282196</v>
       </c>
       <c r="L16">
-        <v>0.9872861871611149</v>
+        <v>0.9981525784947848</v>
       </c>
       <c r="M16">
-        <v>0.9829946690341816</v>
+        <v>0.992871083151208</v>
       </c>
       <c r="N16">
-        <v>0.9913585131409365</v>
+        <v>1.002718826848755</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9635436459369811</v>
+        <v>0.9741466991289208</v>
       </c>
       <c r="D17">
-        <v>0.9903758501063727</v>
+        <v>0.9988709473144356</v>
       </c>
       <c r="E17">
-        <v>0.9752442170183107</v>
+        <v>0.9852098403309461</v>
       </c>
       <c r="F17">
-        <v>0.9716272193574371</v>
+        <v>0.9806199773792533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032185144517206</v>
+        <v>1.036726897970789</v>
       </c>
       <c r="J17">
-        <v>0.9924786491449167</v>
+        <v>1.002635961176966</v>
       </c>
       <c r="K17">
-        <v>1.004554756390627</v>
+        <v>1.01289880191689</v>
       </c>
       <c r="L17">
-        <v>0.9897006891325454</v>
+        <v>0.999482261369363</v>
       </c>
       <c r="M17">
-        <v>0.9861517127903487</v>
+        <v>0.9949765611069228</v>
       </c>
       <c r="N17">
-        <v>0.9938880826655945</v>
+        <v>1.00405981924579</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9654988794144965</v>
+        <v>0.9753833194639842</v>
       </c>
       <c r="D18">
-        <v>0.9918763761809142</v>
+        <v>0.9997992200155328</v>
       </c>
       <c r="E18">
-        <v>0.9768595244285</v>
+        <v>0.9861894774084201</v>
       </c>
       <c r="F18">
-        <v>0.9736789372470193</v>
+        <v>0.9820570895790385</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032902931713447</v>
+        <v>1.037139434397471</v>
       </c>
       <c r="J18">
-        <v>0.993931788851674</v>
+        <v>1.003409693869243</v>
       </c>
       <c r="K18">
-        <v>1.005836822939315</v>
+        <v>1.013621420083721</v>
       </c>
       <c r="L18">
-        <v>0.9910900165179782</v>
+        <v>1.000250934103196</v>
       </c>
       <c r="M18">
-        <v>0.9879680188942813</v>
+        <v>0.996192899534162</v>
       </c>
       <c r="N18">
-        <v>0.9953432859974132</v>
+        <v>1.004834650727237</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9661611436781506</v>
+        <v>0.9758031052197266</v>
       </c>
       <c r="D19">
-        <v>0.9923847364173151</v>
+        <v>1.000114370950764</v>
       </c>
       <c r="E19">
-        <v>0.9774068470471955</v>
+        <v>0.986522190381841</v>
       </c>
       <c r="F19">
-        <v>0.9743739539216684</v>
+        <v>0.9825448931936656</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033145766060885</v>
+        <v>1.037279187902912</v>
       </c>
       <c r="J19">
-        <v>0.9944239296492547</v>
+        <v>1.003672292024298</v>
       </c>
       <c r="K19">
-        <v>1.006270969757489</v>
+        <v>1.013866597664149</v>
       </c>
       <c r="L19">
-        <v>0.9915605991562172</v>
+        <v>1.000511878499627</v>
       </c>
       <c r="M19">
-        <v>0.9885831806095072</v>
+        <v>0.9966056809273425</v>
       </c>
       <c r="N19">
-        <v>0.9958361256913757</v>
+        <v>1.005097621801794</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9631818690866878</v>
+        <v>0.973918336858168</v>
       </c>
       <c r="D20">
-        <v>0.9900982626368435</v>
+        <v>0.998699545082242</v>
       </c>
       <c r="E20">
-        <v>0.9749454316838719</v>
+        <v>0.9850290126727782</v>
       </c>
       <c r="F20">
-        <v>0.9712476242465569</v>
+        <v>0.980354570626769</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032052194593772</v>
+        <v>1.03665057999153</v>
       </c>
       <c r="J20">
-        <v>0.9922097480974422</v>
+        <v>1.002493052956527</v>
       </c>
       <c r="K20">
-        <v>1.004317485738923</v>
+        <v>1.012765300030629</v>
       </c>
       <c r="L20">
-        <v>0.9894436221700607</v>
+        <v>0.9993403180774204</v>
       </c>
       <c r="M20">
-        <v>0.9858156199248136</v>
+        <v>0.9947518870458302</v>
       </c>
       <c r="N20">
-        <v>0.9936187997477895</v>
+        <v>1.003916708079285</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9531716151341013</v>
+        <v>0.9676563722900947</v>
       </c>
       <c r="D21">
-        <v>0.9824247566204682</v>
+        <v>0.9940020040455516</v>
       </c>
       <c r="E21">
-        <v>0.966690028126448</v>
+        <v>0.9800799694758768</v>
       </c>
       <c r="F21">
-        <v>0.9607483492524298</v>
+        <v>0.9730741404704351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028357651078947</v>
+        <v>1.034542110348386</v>
       </c>
       <c r="J21">
-        <v>0.9847666218934055</v>
+        <v>0.9985714952876028</v>
       </c>
       <c r="K21">
-        <v>0.9977469268949253</v>
+        <v>1.009097908320032</v>
       </c>
       <c r="L21">
-        <v>0.982331195119978</v>
+        <v>0.9954488225182211</v>
       </c>
       <c r="M21">
-        <v>0.9765135708272662</v>
+        <v>0.988584240452797</v>
       </c>
       <c r="N21">
-        <v>0.9861651034508043</v>
+        <v>0.9999895813486628</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9466058348701144</v>
+        <v>0.9636101862888958</v>
       </c>
       <c r="D22">
-        <v>0.9773999016600931</v>
+        <v>0.9909695928251853</v>
       </c>
       <c r="E22">
-        <v>0.9612879270402881</v>
+        <v>0.9768917704850389</v>
       </c>
       <c r="F22">
-        <v>0.9538656899752154</v>
+        <v>0.9683668771374001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025919375913284</v>
+        <v>1.033164647532784</v>
       </c>
       <c r="J22">
-        <v>0.9798825752847996</v>
+        <v>0.9960350271411464</v>
       </c>
       <c r="K22">
-        <v>0.9934327709540293</v>
+        <v>1.006722091891768</v>
       </c>
       <c r="L22">
-        <v>0.9776673663265916</v>
+        <v>0.9929353387477442</v>
       </c>
       <c r="M22">
-        <v>0.9704100334598007</v>
+        <v>0.9845921631742549</v>
       </c>
       <c r="N22">
-        <v>0.9812741209358063</v>
+        <v>0.9974495111265014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9501138786087209</v>
+        <v>0.965765888490942</v>
       </c>
       <c r="D23">
-        <v>0.9800837820478391</v>
+        <v>0.9925848722199292</v>
       </c>
       <c r="E23">
-        <v>0.9641729628790178</v>
+        <v>0.9785894228541669</v>
       </c>
       <c r="F23">
-        <v>0.9575426818562039</v>
+        <v>0.9708750961704066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027223487899881</v>
+        <v>1.033899917709518</v>
       </c>
       <c r="J23">
-        <v>0.9824922274674694</v>
+        <v>0.9973866121990854</v>
       </c>
       <c r="K23">
-        <v>0.9957381506280429</v>
+        <v>1.007988414724467</v>
       </c>
       <c r="L23">
-        <v>0.9801590386850478</v>
+        <v>0.9942743403958909</v>
       </c>
       <c r="M23">
-        <v>0.9736713061343348</v>
+        <v>0.9867196943661455</v>
       </c>
       <c r="N23">
-        <v>0.9838874791239068</v>
+        <v>0.9988030155902515</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9633454229017375</v>
+        <v>0.9740215585238224</v>
       </c>
       <c r="D24">
-        <v>0.9902237535647539</v>
+        <v>0.9987770195997391</v>
       </c>
       <c r="E24">
-        <v>0.9750805043110693</v>
+        <v>0.9851107452695148</v>
       </c>
       <c r="F24">
-        <v>0.971419232115083</v>
+        <v>0.9804745375063688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032112304493241</v>
+        <v>1.036685081576339</v>
       </c>
       <c r="J24">
-        <v>0.9923313151702224</v>
+        <v>1.002557649651434</v>
       </c>
       <c r="K24">
-        <v>1.004424754076624</v>
+        <v>1.012825646237361</v>
       </c>
       <c r="L24">
-        <v>0.9895598381972626</v>
+        <v>0.999404477444119</v>
       </c>
       <c r="M24">
-        <v>0.9859675632287924</v>
+        <v>0.9948534438097526</v>
       </c>
       <c r="N24">
-        <v>0.9937405394597572</v>
+        <v>1.003981396508909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9776600836565342</v>
+        <v>0.983164992601831</v>
       </c>
       <c r="D25">
-        <v>1.001219683050316</v>
+        <v>1.005643892759831</v>
       </c>
       <c r="E25">
-        <v>0.9869256745264947</v>
+        <v>0.9923706402309325</v>
       </c>
       <c r="F25">
-        <v>0.98644776818388</v>
+        <v>0.9910965197529314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037336666139062</v>
+        <v>1.039704943033157</v>
       </c>
       <c r="J25">
-        <v>1.002963395524309</v>
+        <v>1.008272515064864</v>
       </c>
       <c r="K25">
-        <v>1.013799094470999</v>
+        <v>1.018155221828092</v>
       </c>
       <c r="L25">
-        <v>0.999730400908353</v>
+        <v>1.005088558120372</v>
       </c>
       <c r="M25">
-        <v>0.9992601724598257</v>
+        <v>1.003834641292839</v>
       </c>
       <c r="N25">
-        <v>1.004387718587463</v>
+        <v>1.00970437768673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901427086223471</v>
+        <v>0.9926377954247486</v>
       </c>
       <c r="D2">
-        <v>1.010888093396193</v>
+        <v>1.0159042580062</v>
       </c>
       <c r="E2">
-        <v>0.9979380434834761</v>
+        <v>1.000146139987116</v>
       </c>
       <c r="F2">
-        <v>0.9991973852446785</v>
+        <v>1.001810335645581</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041955520227151</v>
+        <v>1.044505946633653</v>
       </c>
       <c r="J2">
-        <v>1.012622300699061</v>
+        <v>1.015040960920327</v>
       </c>
       <c r="K2">
-        <v>1.022197795564904</v>
+        <v>1.02714638015129</v>
       </c>
       <c r="L2">
-        <v>1.009426179579326</v>
+        <v>1.011603439222598</v>
       </c>
       <c r="M2">
-        <v>1.010667913102313</v>
+        <v>1.013244507102973</v>
       </c>
       <c r="N2">
-        <v>1.014060340515456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009049563474986</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030264963949088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9950428304474743</v>
+        <v>0.9964434140440291</v>
       </c>
       <c r="D3">
-        <v>1.014571573572144</v>
+        <v>1.018425327332632</v>
       </c>
       <c r="E3">
-        <v>1.001862217787436</v>
+        <v>1.003121687074824</v>
       </c>
       <c r="F3">
-        <v>1.00488434801203</v>
+        <v>1.006523563229619</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043503716582735</v>
+        <v>1.045445988350094</v>
       </c>
       <c r="J3">
-        <v>1.015669551226479</v>
+        <v>1.017031506997544</v>
       </c>
       <c r="K3">
-        <v>1.025021342458424</v>
+        <v>1.028827758115419</v>
       </c>
       <c r="L3">
-        <v>1.012471326513391</v>
+        <v>1.013714780550678</v>
       </c>
       <c r="M3">
-        <v>1.015455111849014</v>
+        <v>1.017073648812933</v>
       </c>
       <c r="N3">
-        <v>1.017111918488147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009713719576869</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031451176990595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9981414842691231</v>
+        <v>0.9988605839486022</v>
       </c>
       <c r="D4">
-        <v>1.016900747220104</v>
+        <v>1.020028154007051</v>
       </c>
       <c r="E4">
-        <v>1.004350038737378</v>
+        <v>1.005017709665734</v>
       </c>
       <c r="F4">
-        <v>1.00848001822921</v>
+        <v>1.009514743612653</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044467459536966</v>
+        <v>1.046029275483546</v>
       </c>
       <c r="J4">
-        <v>1.017592850845283</v>
+        <v>1.018293481081601</v>
       </c>
       <c r="K4">
-        <v>1.026799386154152</v>
+        <v>1.029890719939322</v>
       </c>
       <c r="L4">
-        <v>1.014396244622573</v>
+        <v>1.015055950247645</v>
       </c>
       <c r="M4">
-        <v>1.018477163058646</v>
+        <v>1.019499674552979</v>
       </c>
       <c r="N4">
-        <v>1.019037949413015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.0101348151629</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032203704346816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9994275881543306</v>
+        <v>0.9998686125052975</v>
       </c>
       <c r="D5">
-        <v>1.017867382309779</v>
+        <v>1.020698740425751</v>
       </c>
       <c r="E5">
-        <v>1.005384080468601</v>
+        <v>1.005810113752189</v>
       </c>
       <c r="F5">
-        <v>1.009972321965298</v>
+        <v>1.010760650408942</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044863746090954</v>
+        <v>1.046270315369155</v>
       </c>
       <c r="J5">
-        <v>1.01839020569076</v>
+        <v>1.018820246283192</v>
       </c>
       <c r="K5">
-        <v>1.027535525595846</v>
+        <v>1.030335104220018</v>
       </c>
       <c r="L5">
-        <v>1.015194974941355</v>
+        <v>1.01561606420651</v>
       </c>
       <c r="M5">
-        <v>1.019730241876034</v>
+        <v>1.020509528261197</v>
       </c>
       <c r="N5">
-        <v>1.01983643659383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010310859603171</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032525171584066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9996425779974353</v>
+        <v>1.000040123487006</v>
       </c>
       <c r="D6">
-        <v>1.018028961192319</v>
+        <v>1.020815081497834</v>
       </c>
       <c r="E6">
-        <v>1.005557019405498</v>
+        <v>1.005945361867186</v>
       </c>
       <c r="F6">
-        <v>1.010221776997449</v>
+        <v>1.010971441113646</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044929770768089</v>
+        <v>1.046312522886292</v>
       </c>
       <c r="J6">
-        <v>1.018523439621192</v>
+        <v>1.018911135823542</v>
       </c>
       <c r="K6">
-        <v>1.02765847159181</v>
+        <v>1.030413464759016</v>
       </c>
       <c r="L6">
-        <v>1.015328480071467</v>
+        <v>1.015712337011382</v>
       </c>
       <c r="M6">
-        <v>1.019939639168907</v>
+        <v>1.020680746488676</v>
       </c>
       <c r="N6">
-        <v>1.019969859731726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010341560556714</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032589413058014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9981587334909822</v>
+        <v>0.9988817557468265</v>
       </c>
       <c r="D7">
-        <v>1.016913712183645</v>
+        <v>1.02004816122349</v>
       </c>
       <c r="E7">
-        <v>1.004363901575464</v>
+        <v>1.00503526687383</v>
       </c>
       <c r="F7">
-        <v>1.008500033294156</v>
+        <v>1.009537778808425</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044472789290617</v>
+        <v>1.046038058112799</v>
       </c>
       <c r="J7">
-        <v>1.017603548630259</v>
+        <v>1.018308008464173</v>
       </c>
       <c r="K7">
-        <v>1.02680926660163</v>
+        <v>1.029907574948225</v>
       </c>
       <c r="L7">
-        <v>1.014406958078815</v>
+        <v>1.015070316999674</v>
       </c>
       <c r="M7">
-        <v>1.018493974194566</v>
+        <v>1.019519474924891</v>
       </c>
       <c r="N7">
-        <v>1.019048662390073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010140555483754</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032235940205488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9918140684774789</v>
+        <v>0.9939428946511315</v>
       </c>
       <c r="D8">
-        <v>1.01214445956993</v>
+        <v>1.016775648088024</v>
       </c>
       <c r="E8">
-        <v>0.9992751626127081</v>
+        <v>1.001166470532793</v>
       </c>
       <c r="F8">
-        <v>1.001137269258672</v>
+        <v>1.003423267727068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042486764743105</v>
+        <v>1.044835571142071</v>
       </c>
       <c r="J8">
-        <v>1.013662421665706</v>
+        <v>1.015728271648008</v>
       </c>
       <c r="K8">
-        <v>1.023162401382751</v>
+        <v>1.027733077864159</v>
       </c>
       <c r="L8">
-        <v>1.010464961241176</v>
+        <v>1.012330664383985</v>
       </c>
       <c r="M8">
-        <v>1.012301857515919</v>
+        <v>1.014557067490748</v>
       </c>
       <c r="N8">
-        <v>1.015101938573176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.00928003659681</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.030702975866224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.980049442161243</v>
+        <v>0.9848646860448871</v>
       </c>
       <c r="D9">
-        <v>1.00330324452181</v>
+        <v>1.010765580240912</v>
       </c>
       <c r="E9">
-        <v>0.9898924244862282</v>
+        <v>0.9941035032772656</v>
       </c>
       <c r="F9">
-        <v>0.9874781513240294</v>
+        <v>0.9921672487400026</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038684352946695</v>
+        <v>1.042512134102729</v>
       </c>
       <c r="J9">
-        <v>1.006326924807571</v>
+        <v>1.010963470151243</v>
       </c>
       <c r="K9">
-        <v>1.016342955268444</v>
+        <v>1.02368637515933</v>
       </c>
       <c r="L9">
-        <v>1.00315164672587</v>
+        <v>1.007292976987858</v>
       </c>
       <c r="M9">
-        <v>1.000777707239182</v>
+        <v>1.005388698184565</v>
       </c>
       <c r="N9">
-        <v>1.007756024468109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007689463474501</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027838409741568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9717640528591683</v>
+        <v>0.9785465831819655</v>
       </c>
       <c r="D10">
-        <v>0.9970829010843785</v>
+        <v>1.006597471699672</v>
       </c>
       <c r="E10">
-        <v>0.9833243518567072</v>
+        <v>0.9892245023275645</v>
       </c>
       <c r="F10">
-        <v>0.9778504992872183</v>
+        <v>0.984313678619298</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0359285826679</v>
+        <v>1.040826086161554</v>
       </c>
       <c r="J10">
-        <v>1.001144532364413</v>
+        <v>1.007638013114479</v>
       </c>
       <c r="K10">
-        <v>1.011505025157865</v>
+        <v>1.020848619783775</v>
       </c>
       <c r="L10">
-        <v>0.9980013621805262</v>
+        <v>1.003791075920215</v>
       </c>
       <c r="M10">
-        <v>0.9926315269024951</v>
+        <v>0.9989720504284124</v>
       </c>
       <c r="N10">
-        <v>1.002566272433253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006580099090995</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.025848911023872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9680593020043422</v>
+        <v>0.9757502622524387</v>
       </c>
       <c r="D11">
-        <v>0.994304112813139</v>
+        <v>1.004762868628174</v>
       </c>
       <c r="E11">
-        <v>0.9803978712627532</v>
+        <v>0.9870755827757229</v>
       </c>
       <c r="F11">
-        <v>0.9735427671223693</v>
+        <v>0.9808282174993214</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034678659070878</v>
+        <v>1.040067483101186</v>
       </c>
       <c r="J11">
-        <v>0.9988239828299779</v>
+        <v>1.006167851801118</v>
       </c>
       <c r="K11">
-        <v>1.009334250604887</v>
+        <v>1.019595519731419</v>
       </c>
       <c r="L11">
-        <v>0.9956991710487914</v>
+        <v>1.002245421100668</v>
       </c>
       <c r="M11">
-        <v>0.9889814917101416</v>
+        <v>0.9961209743116318</v>
       </c>
       <c r="N11">
-        <v>1.000242427452309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006091117131863</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.024996171460468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9666644562261266</v>
+        <v>0.9746956880845503</v>
       </c>
       <c r="D12">
-        <v>0.9932583847314193</v>
+        <v>1.004067962711245</v>
       </c>
       <c r="E12">
-        <v>0.979297690799575</v>
+        <v>0.9862658569407753</v>
       </c>
       <c r="F12">
-        <v>0.9719203927558232</v>
+        <v>0.9795151917796724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034205469992529</v>
+        <v>1.039776953987793</v>
       </c>
       <c r="J12">
-        <v>0.9979498506775862</v>
+        <v>1.005610968854662</v>
       </c>
       <c r="K12">
-        <v>1.008515893306892</v>
+        <v>1.019117639768054</v>
       </c>
       <c r="L12">
-        <v>0.9948325604978011</v>
+        <v>1.001660998008494</v>
       </c>
       <c r="M12">
-        <v>0.9876060780914624</v>
+        <v>0.9950456604653301</v>
       </c>
       <c r="N12">
-        <v>0.9993670539319963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005905186941991</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.024658286114147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9669645226126355</v>
+        <v>0.9749214335234427</v>
       </c>
       <c r="D13">
-        <v>0.993483323255119</v>
+        <v>1.004215984842759</v>
       </c>
       <c r="E13">
-        <v>0.9795342915444241</v>
+        <v>0.9864389786988217</v>
       </c>
       <c r="F13">
-        <v>0.9722694305155143</v>
+        <v>0.9797967633833609</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034307380724218</v>
+        <v>1.03983885593725</v>
       </c>
       <c r="J13">
-        <v>0.9981379175207395</v>
+        <v>1.005729776089736</v>
       </c>
       <c r="K13">
-        <v>1.008691989012472</v>
+        <v>1.019219092450726</v>
       </c>
       <c r="L13">
-        <v>0.9950189815764756</v>
+        <v>1.001785756500227</v>
       </c>
       <c r="M13">
-        <v>0.9879020175493338</v>
+        <v>0.9952761640900506</v>
       </c>
       <c r="N13">
-        <v>0.9995553878516382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005944708252679</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.024727490741012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9679443927696735</v>
+        <v>0.9756629031402481</v>
       </c>
       <c r="D14">
-        <v>0.9942179537749738</v>
+        <v>1.004704989633118</v>
       </c>
       <c r="E14">
-        <v>0.9803072030203338</v>
+        <v>0.9870084150943649</v>
       </c>
       <c r="F14">
-        <v>0.9734091245565375</v>
+        <v>0.9807196632640165</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034639729343437</v>
+        <v>1.04004329425152</v>
       </c>
       <c r="J14">
-        <v>0.9987519793153284</v>
+        <v>1.006121549197955</v>
       </c>
       <c r="K14">
-        <v>1.009266854269174</v>
+        <v>1.019555572040491</v>
       </c>
       <c r="L14">
-        <v>0.9956277747389068</v>
+        <v>1.002196860805382</v>
       </c>
       <c r="M14">
-        <v>0.988868207285618</v>
+        <v>0.9960320340686052</v>
       </c>
       <c r="N14">
-        <v>1.000170321684409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006075595804883</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024966843691206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685456046229908</v>
+        <v>0.9761202067202903</v>
       </c>
       <c r="D15">
-        <v>0.9946687635320537</v>
+        <v>1.005008073770503</v>
       </c>
       <c r="E15">
-        <v>0.980781652103364</v>
+        <v>0.9873600949565999</v>
       </c>
       <c r="F15">
-        <v>0.9741083292053035</v>
+        <v>0.9812878350752103</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034843306868105</v>
+        <v>1.040169863832987</v>
       </c>
       <c r="J15">
-        <v>0.9991286882878593</v>
+        <v>1.006363964178333</v>
       </c>
       <c r="K15">
-        <v>1.009619433270691</v>
+        <v>1.01976475297764</v>
       </c>
       <c r="L15">
-        <v>0.9960013316626809</v>
+        <v>1.002451105894557</v>
       </c>
       <c r="M15">
-        <v>0.9894608702164929</v>
+        <v>0.9964975336842666</v>
       </c>
       <c r="N15">
-        <v>1.00054756562689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006156871934923</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025120698257261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9720073622033283</v>
+        <v>0.9787474178964706</v>
       </c>
       <c r="D16">
-        <v>0.9972654602251355</v>
+        <v>1.006741636410109</v>
       </c>
       <c r="E16">
-        <v>0.9835167713623931</v>
+        <v>0.9893815102866146</v>
       </c>
       <c r="F16">
-        <v>0.9781333442542871</v>
+        <v>0.9845560568824739</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036010308922615</v>
+        <v>1.040887240540414</v>
       </c>
       <c r="J16">
-        <v>1.00129687044237</v>
+        <v>1.007750798653505</v>
       </c>
       <c r="K16">
-        <v>1.011647440282196</v>
+        <v>1.020953902827229</v>
       </c>
       <c r="L16">
-        <v>0.9981525784947848</v>
+        <v>1.003907918234895</v>
       </c>
       <c r="M16">
-        <v>0.992871083151208</v>
+        <v>0.9991723534134946</v>
       </c>
       <c r="N16">
-        <v>1.002718826848755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006620058623502</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.025964699794265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9741466991289208</v>
+        <v>0.9803763642283623</v>
       </c>
       <c r="D17">
-        <v>0.9988709473144356</v>
+        <v>1.007817510029338</v>
       </c>
       <c r="E17">
-        <v>0.9852098403309461</v>
+        <v>0.9906372934049738</v>
       </c>
       <c r="F17">
-        <v>0.9806199773792533</v>
+        <v>0.9865810185201588</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036726897970789</v>
+        <v>1.041327819056916</v>
       </c>
       <c r="J17">
-        <v>1.002635961176966</v>
+        <v>1.008610111870136</v>
       </c>
       <c r="K17">
-        <v>1.01289880191689</v>
+        <v>1.021689844452763</v>
       </c>
       <c r="L17">
-        <v>0.999482261369363</v>
+        <v>1.004811500751013</v>
       </c>
       <c r="M17">
-        <v>0.9949765611069228</v>
+        <v>1.000828494381404</v>
       </c>
       <c r="N17">
-        <v>1.00405981924579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006907076633841</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026487670995269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9753833194639842</v>
+        <v>0.9813146310645376</v>
       </c>
       <c r="D18">
-        <v>0.9997992200155328</v>
+        <v>1.008433734240132</v>
       </c>
       <c r="E18">
-        <v>0.9861894774084201</v>
+        <v>0.9913607363549082</v>
       </c>
       <c r="F18">
-        <v>0.9820570895790385</v>
+        <v>0.9877492820837986</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037139434397471</v>
+        <v>1.0415778662822</v>
       </c>
       <c r="J18">
-        <v>1.003409693869243</v>
+        <v>1.009102621036748</v>
       </c>
       <c r="K18">
-        <v>1.013621420083721</v>
+        <v>1.022108461256334</v>
       </c>
       <c r="L18">
-        <v>1.000250934103196</v>
+        <v>1.005330279888141</v>
       </c>
       <c r="M18">
-        <v>0.996192899534162</v>
+        <v>1.001782883465034</v>
       </c>
       <c r="N18">
-        <v>1.004834650727237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007070848633495</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026771863439971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9758031052197266</v>
+        <v>0.9816374379245327</v>
       </c>
       <c r="D19">
-        <v>1.000114370950764</v>
+        <v>1.008648761090069</v>
       </c>
       <c r="E19">
-        <v>0.986522190381841</v>
+        <v>0.9916103561441887</v>
       </c>
       <c r="F19">
-        <v>0.9825448931936656</v>
+        <v>0.9881492910728863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037279187902912</v>
+        <v>1.041665337685781</v>
       </c>
       <c r="J19">
-        <v>1.003672292024298</v>
+        <v>1.009273768293915</v>
       </c>
       <c r="K19">
-        <v>1.013866597664149</v>
+        <v>1.022256105415059</v>
       </c>
       <c r="L19">
-        <v>1.000511878499627</v>
+        <v>1.005510163902837</v>
       </c>
       <c r="M19">
-        <v>0.9966056809273425</v>
+        <v>1.002110106537123</v>
       </c>
       <c r="N19">
-        <v>1.005097621801794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00712833433265</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026882731290002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.973918336858168</v>
+        <v>0.9802018884207934</v>
       </c>
       <c r="D20">
-        <v>0.998699545082242</v>
+        <v>1.007701942297383</v>
       </c>
       <c r="E20">
-        <v>0.9850290126727782</v>
+        <v>0.9905026387471977</v>
       </c>
       <c r="F20">
-        <v>0.980354570626769</v>
+        <v>0.9863643624298617</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03665057999153</v>
+        <v>1.041280618472991</v>
       </c>
       <c r="J20">
-        <v>1.002493052956527</v>
+        <v>1.008517919762107</v>
       </c>
       <c r="K20">
-        <v>1.012765300030629</v>
+        <v>1.021610700923919</v>
       </c>
       <c r="L20">
-        <v>0.9993403180774204</v>
+        <v>1.004714569168777</v>
       </c>
       <c r="M20">
-        <v>0.9947518870458302</v>
+        <v>1.000651291866833</v>
       </c>
       <c r="N20">
-        <v>1.003916708079285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006876225495417</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02643035940857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9676563722900947</v>
+        <v>0.9754503166797329</v>
       </c>
       <c r="D21">
-        <v>0.9940020040455516</v>
+        <v>1.004568719868153</v>
       </c>
       <c r="E21">
-        <v>0.9800799694758768</v>
+        <v>0.9868459276129145</v>
       </c>
       <c r="F21">
-        <v>0.9730741404704351</v>
+        <v>0.9804525035441232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034542110348386</v>
+        <v>1.039986970407699</v>
       </c>
       <c r="J21">
-        <v>0.9985714952876028</v>
+        <v>1.006011557727172</v>
       </c>
       <c r="K21">
-        <v>1.009097908320032</v>
+        <v>1.019464050344389</v>
       </c>
       <c r="L21">
-        <v>0.9954488225182211</v>
+        <v>1.002080868050291</v>
       </c>
       <c r="M21">
-        <v>0.988584240452797</v>
+        <v>0.9958139201225377</v>
       </c>
       <c r="N21">
-        <v>0.9999895813486628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006039659709666</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.024915832721342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9636101862888958</v>
+        <v>0.9723920425160008</v>
       </c>
       <c r="D22">
-        <v>0.9909695928251853</v>
+        <v>1.00255071288373</v>
       </c>
       <c r="E22">
-        <v>0.9768917704850389</v>
+        <v>0.9844996448157091</v>
       </c>
       <c r="F22">
-        <v>0.9683668771374001</v>
+        <v>0.9766455942872154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033164647532784</v>
+        <v>1.039137746282008</v>
       </c>
       <c r="J22">
-        <v>0.9960350271411464</v>
+        <v>1.004393688910754</v>
       </c>
       <c r="K22">
-        <v>1.006722091891768</v>
+        <v>1.018071808441721</v>
       </c>
       <c r="L22">
-        <v>0.9929353387477442</v>
+        <v>1.000384550120128</v>
       </c>
       <c r="M22">
-        <v>0.9845921631742549</v>
+        <v>0.9926943512166961</v>
       </c>
       <c r="N22">
-        <v>0.9974495111265014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005498692985421</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023917745045418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.965765888490942</v>
+        <v>0.9740130249490175</v>
       </c>
       <c r="D23">
-        <v>0.9925848722199292</v>
+        <v>1.003615248308653</v>
       </c>
       <c r="E23">
-        <v>0.9785894228541669</v>
+        <v>0.9857414653014043</v>
       </c>
       <c r="F23">
-        <v>0.9708750961704066</v>
+        <v>0.9786669835613443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033899917709518</v>
+        <v>1.03958650072518</v>
       </c>
       <c r="J23">
-        <v>0.9973866121990854</v>
+        <v>1.005248592435452</v>
       </c>
       <c r="K23">
-        <v>1.007988414724467</v>
+        <v>1.018804265368562</v>
       </c>
       <c r="L23">
-        <v>0.9942743403958909</v>
+        <v>1.001281279035081</v>
       </c>
       <c r="M23">
-        <v>0.9867196943661455</v>
+        <v>0.9943503125136538</v>
       </c>
       <c r="N23">
-        <v>0.9988030155902515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005783565717421</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024425868990285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9740215585238224</v>
+        <v>0.9802698630342286</v>
       </c>
       <c r="D24">
-        <v>0.9987770195997391</v>
+        <v>1.007738985514499</v>
       </c>
       <c r="E24">
-        <v>0.9851107452695148</v>
+        <v>0.9905535303151788</v>
       </c>
       <c r="F24">
-        <v>0.9804745375063688</v>
+        <v>0.9864537787314016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036685081576339</v>
+        <v>1.041294425747997</v>
       </c>
       <c r="J24">
-        <v>1.002557649651434</v>
+        <v>1.008549148088094</v>
       </c>
       <c r="K24">
-        <v>1.012825646237361</v>
+        <v>1.021631545384943</v>
       </c>
       <c r="L24">
-        <v>0.999404477444119</v>
+        <v>1.004748592567327</v>
       </c>
       <c r="M24">
-        <v>0.9948534438097526</v>
+        <v>1.000723031957991</v>
       </c>
       <c r="N24">
-        <v>1.003981396508909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006885126800282</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026417341131754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.983164992601831</v>
+        <v>0.9872687137525108</v>
       </c>
       <c r="D25">
-        <v>1.005643892759831</v>
+        <v>1.012363826143161</v>
       </c>
       <c r="E25">
-        <v>0.9923706402309325</v>
+        <v>0.9959693597117917</v>
       </c>
       <c r="F25">
-        <v>0.9910965197529314</v>
+        <v>0.9951457899126106</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039704943033157</v>
+        <v>1.043144896391964</v>
       </c>
       <c r="J25">
-        <v>1.008272515064864</v>
+        <v>1.012232266347035</v>
       </c>
       <c r="K25">
-        <v>1.018155221828092</v>
+        <v>1.02477319431009</v>
       </c>
       <c r="L25">
-        <v>1.005088558120372</v>
+        <v>1.008630570091215</v>
       </c>
       <c r="M25">
-        <v>1.003834641292839</v>
+        <v>1.007819931543215</v>
       </c>
       <c r="N25">
-        <v>1.00970437768673</v>
+        <v>1.008114506307314</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.02863580235096</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9926377954247486</v>
+        <v>0.9932028402222002</v>
       </c>
       <c r="D2">
-        <v>1.0159042580062</v>
+        <v>1.016242093682696</v>
       </c>
       <c r="E2">
-        <v>1.000146139987116</v>
+        <v>1.000634653434151</v>
       </c>
       <c r="F2">
-        <v>1.001810335645581</v>
+        <v>1.002259791155063</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044505946633653</v>
+        <v>1.04469137262248</v>
       </c>
       <c r="J2">
-        <v>1.015040960920327</v>
+        <v>1.015588771413491</v>
       </c>
       <c r="K2">
-        <v>1.02714638015129</v>
+        <v>1.027479694475884</v>
       </c>
       <c r="L2">
-        <v>1.011603439222598</v>
+        <v>1.012085153601844</v>
       </c>
       <c r="M2">
-        <v>1.013244507102973</v>
+        <v>1.013687733020261</v>
       </c>
       <c r="N2">
-        <v>1.009049563474986</v>
+        <v>1.011424630775561</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030264963949088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030509521596885</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019486837027795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9964434140440291</v>
+        <v>0.9968627131535872</v>
       </c>
       <c r="D3">
-        <v>1.018425327332632</v>
+        <v>1.018574180835668</v>
       </c>
       <c r="E3">
-        <v>1.003121687074824</v>
+        <v>1.00348440732609</v>
       </c>
       <c r="F3">
-        <v>1.006523563229619</v>
+        <v>1.006839236508863</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045445988350094</v>
+        <v>1.045533748370634</v>
       </c>
       <c r="J3">
-        <v>1.017031506997544</v>
+        <v>1.017439270692384</v>
       </c>
       <c r="K3">
-        <v>1.028827758115419</v>
+        <v>1.028974792089908</v>
       </c>
       <c r="L3">
-        <v>1.013714780550678</v>
+        <v>1.014072897806944</v>
       </c>
       <c r="M3">
-        <v>1.017073648812933</v>
+        <v>1.017385349604074</v>
       </c>
       <c r="N3">
-        <v>1.009713719576869</v>
+        <v>1.011915799218825</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031451176990595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031563735748753</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019781606929243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988605839486022</v>
+        <v>0.9991883909590608</v>
       </c>
       <c r="D4">
-        <v>1.020028154007051</v>
+        <v>1.02005772896786</v>
       </c>
       <c r="E4">
-        <v>1.005017709665734</v>
+        <v>1.005301319466076</v>
       </c>
       <c r="F4">
-        <v>1.009514743612653</v>
+        <v>1.009746574437229</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046029275483546</v>
+        <v>1.046055308250704</v>
       </c>
       <c r="J4">
-        <v>1.018293481081601</v>
+        <v>1.018612880588701</v>
       </c>
       <c r="K4">
-        <v>1.029890719939322</v>
+        <v>1.029919955071977</v>
       </c>
       <c r="L4">
-        <v>1.015055950247645</v>
+        <v>1.015336180556725</v>
       </c>
       <c r="M4">
-        <v>1.019499674552979</v>
+        <v>1.01972877309859</v>
       </c>
       <c r="N4">
-        <v>1.0101348151629</v>
+        <v>1.012227359110021</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032203704346816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032233047342309</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019965356895489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9998686125052975</v>
+        <v>1.000158532662524</v>
       </c>
       <c r="D5">
-        <v>1.020698740425751</v>
+        <v>1.020678824560882</v>
       </c>
       <c r="E5">
-        <v>1.005810113752189</v>
+        <v>1.006060930523059</v>
       </c>
       <c r="F5">
-        <v>1.010760650408942</v>
+        <v>1.010957803519031</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046270315369155</v>
+        <v>1.046270715423987</v>
       </c>
       <c r="J5">
-        <v>1.018820246283192</v>
+        <v>1.019102953061453</v>
       </c>
       <c r="K5">
-        <v>1.030335104220018</v>
+        <v>1.030315411135168</v>
       </c>
       <c r="L5">
-        <v>1.01561606420651</v>
+        <v>1.015863972726465</v>
       </c>
       <c r="M5">
-        <v>1.020509528261197</v>
+        <v>1.020704422762948</v>
       </c>
       <c r="N5">
-        <v>1.010310859603171</v>
+        <v>1.012357679444722</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032525171584066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032520626777487</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020041933991316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000040123487006</v>
+        <v>1.000323640086405</v>
       </c>
       <c r="D6">
-        <v>1.020815081497834</v>
+        <v>1.020786849414881</v>
       </c>
       <c r="E6">
-        <v>1.005945361867186</v>
+        <v>1.006190630973302</v>
       </c>
       <c r="F6">
-        <v>1.010971441113646</v>
+        <v>1.011162750881835</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046312522886292</v>
+        <v>1.04630861410041</v>
       </c>
       <c r="J6">
-        <v>1.018911135823542</v>
+        <v>1.019187634672607</v>
       </c>
       <c r="K6">
-        <v>1.030413464759016</v>
+        <v>1.03038554704253</v>
       </c>
       <c r="L6">
-        <v>1.015712337011382</v>
+        <v>1.015954775357864</v>
       </c>
       <c r="M6">
-        <v>1.020680746488676</v>
+        <v>1.020869875120599</v>
       </c>
       <c r="N6">
-        <v>1.010341560556714</v>
+        <v>1.01238045149028</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032589413058014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032579920252558</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02005587677966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,93 +719,111 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988817557468265</v>
+        <v>0.9992163210458217</v>
       </c>
       <c r="D7">
-        <v>1.02004816122349</v>
+        <v>1.020081976313108</v>
       </c>
       <c r="E7">
-        <v>1.00503526687383</v>
+        <v>1.005324891031181</v>
       </c>
       <c r="F7">
-        <v>1.009537778808425</v>
+        <v>1.009775204827498</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046038058112799</v>
+        <v>1.046066444171649</v>
       </c>
       <c r="J7">
-        <v>1.018308008464173</v>
+        <v>1.018633996638278</v>
       </c>
       <c r="K7">
-        <v>1.029907574948225</v>
+        <v>1.029941001639618</v>
       </c>
       <c r="L7">
-        <v>1.015070316999674</v>
+        <v>1.015356491332301</v>
       </c>
       <c r="M7">
-        <v>1.019519474924891</v>
+        <v>1.019754103837373</v>
       </c>
       <c r="N7">
-        <v>1.010140555483754</v>
+        <v>1.01225957159813</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032235940205488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032270243374563</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019970950343227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>0.9939428946511315</v>
+        <v>0.9944807966705368</v>
       </c>
       <c r="D8">
-        <v>1.016775648088024</v>
+        <v>1.017064284822824</v>
       </c>
       <c r="E8">
-        <v>1.001166470532793</v>
+        <v>1.001632182498701</v>
       </c>
       <c r="F8">
-        <v>1.003423267727068</v>
+        <v>1.003845911877006</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044835571142071</v>
+        <v>1.04499608643013</v>
       </c>
       <c r="J8">
-        <v>1.015728271648008</v>
+        <v>1.016250319720278</v>
       </c>
       <c r="K8">
-        <v>1.027733077864159</v>
+        <v>1.028017966052164</v>
       </c>
       <c r="L8">
-        <v>1.012330664383985</v>
+        <v>1.012790090134174</v>
       </c>
       <c r="M8">
-        <v>1.014557067490748</v>
+        <v>1.014974038645917</v>
       </c>
       <c r="N8">
-        <v>1.00928003659681</v>
+        <v>1.011679877584844</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030702975866224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.0309155535975</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019596092747176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9848646860448871</v>
+        <v>0.9857604731086943</v>
       </c>
       <c r="D9">
-        <v>1.010765580240912</v>
+        <v>1.011511722054615</v>
       </c>
       <c r="E9">
-        <v>0.9941035032772656</v>
+        <v>0.9948772030400403</v>
       </c>
       <c r="F9">
-        <v>0.9921672487400026</v>
+        <v>0.9929193368666116</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042512134102729</v>
+        <v>1.042908690615954</v>
       </c>
       <c r="J9">
-        <v>1.010963470151243</v>
+        <v>1.011826284219588</v>
       </c>
       <c r="K9">
-        <v>1.02368637515933</v>
+        <v>1.024420750352091</v>
       </c>
       <c r="L9">
-        <v>1.007292976987858</v>
+        <v>1.008053944465565</v>
       </c>
       <c r="M9">
-        <v>1.005388698184565</v>
+        <v>1.006128347100008</v>
       </c>
       <c r="N9">
-        <v>1.007689463474501</v>
+        <v>1.010514725067896</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027838409741568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028368544659345</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018871232879425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9785465831819655</v>
+        <v>0.9797326073223731</v>
       </c>
       <c r="D10">
-        <v>1.006597471699672</v>
+        <v>1.00768968668279</v>
       </c>
       <c r="E10">
-        <v>0.9892245023275645</v>
+        <v>0.9902477556870124</v>
       </c>
       <c r="F10">
-        <v>0.984313678619298</v>
+        <v>0.985331909242355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040826086161554</v>
+        <v>1.041401515393767</v>
       </c>
       <c r="J10">
-        <v>1.007638013114479</v>
+        <v>1.008774077798048</v>
       </c>
       <c r="K10">
-        <v>1.020848619783775</v>
+        <v>1.021921475731656</v>
       </c>
       <c r="L10">
-        <v>1.003791075920215</v>
+        <v>1.004795351018482</v>
       </c>
       <c r="M10">
-        <v>0.9989720504284124</v>
+        <v>0.9999711490366915</v>
       </c>
       <c r="N10">
-        <v>1.006580099090995</v>
+        <v>1.009822362134333</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025848911023872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026620064059928</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018356266944621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9757502622524387</v>
+        <v>0.97712096901027</v>
       </c>
       <c r="D11">
-        <v>1.004762868628174</v>
+        <v>1.006046319842362</v>
       </c>
       <c r="E11">
-        <v>0.9870755827757229</v>
+        <v>0.988258961742736</v>
       </c>
       <c r="F11">
-        <v>0.9808282174993214</v>
+        <v>0.9820128640330861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040067483101186</v>
+        <v>1.040742814811467</v>
       </c>
       <c r="J11">
-        <v>1.006167851801118</v>
+        <v>1.007477519509385</v>
       </c>
       <c r="K11">
-        <v>1.019595519731419</v>
+        <v>1.020855105171966</v>
       </c>
       <c r="L11">
-        <v>1.002245421100668</v>
+        <v>1.003405746328362</v>
       </c>
       <c r="M11">
-        <v>0.9961209743116318</v>
+        <v>0.9972821547642019</v>
       </c>
       <c r="N11">
-        <v>1.006091117131863</v>
+        <v>1.009709013609193</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024996171460468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025902569197514</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018137292328534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9746956880845503</v>
+        <v>0.976141355860263</v>
       </c>
       <c r="D12">
-        <v>1.004067962711245</v>
+        <v>1.00542698644383</v>
       </c>
       <c r="E12">
-        <v>0.9862658569407753</v>
+        <v>0.9875143479019662</v>
       </c>
       <c r="F12">
-        <v>0.9795151917796724</v>
+        <v>0.9807673069150642</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039776953987793</v>
+        <v>1.040491843277663</v>
       </c>
       <c r="J12">
-        <v>1.005610968854662</v>
+        <v>1.006990940984394</v>
       </c>
       <c r="K12">
-        <v>1.019117639768054</v>
+        <v>1.020450947337992</v>
       </c>
       <c r="L12">
-        <v>1.001660998008494</v>
+        <v>1.002884727372999</v>
       </c>
       <c r="M12">
-        <v>0.9950456604653301</v>
+        <v>0.9962724897221357</v>
       </c>
       <c r="N12">
-        <v>1.005905186941991</v>
+        <v>1.009682232232226</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024658286114147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025616815952015</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018053514173916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9749214335234427</v>
+        <v>0.9763508225413262</v>
       </c>
       <c r="D13">
-        <v>1.004215984842759</v>
+        <v>1.00555864849354</v>
       </c>
       <c r="E13">
-        <v>0.9864389786988217</v>
+        <v>0.9876733313534787</v>
       </c>
       <c r="F13">
-        <v>0.9797967633833609</v>
+        <v>0.9810342174747169</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.03983885593725</v>
+        <v>1.040545178944661</v>
       </c>
       <c r="J13">
-        <v>1.005729776089736</v>
+        <v>1.007094489810323</v>
       </c>
       <c r="K13">
-        <v>1.019219092450726</v>
+        <v>1.020536443996618</v>
       </c>
       <c r="L13">
-        <v>1.001785756500227</v>
+        <v>1.002995721360424</v>
       </c>
       <c r="M13">
-        <v>0.9952761640900506</v>
+        <v>0.9964887312128969</v>
       </c>
       <c r="N13">
-        <v>1.005944708252679</v>
+        <v>1.009686967969244</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024727490741012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025674495754619</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018071135791776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756629031402481</v>
+        <v>0.9770397120048723</v>
       </c>
       <c r="D14">
-        <v>1.004704989633118</v>
+        <v>1.005994617443618</v>
       </c>
       <c r="E14">
-        <v>0.9870084150943649</v>
+        <v>0.988197094842761</v>
       </c>
       <c r="F14">
-        <v>0.9807196632640165</v>
+        <v>0.9819097983141827</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04004329425152</v>
+        <v>1.040721857738327</v>
       </c>
       <c r="J14">
-        <v>1.006121549197955</v>
+        <v>1.00743694389996</v>
       </c>
       <c r="K14">
-        <v>1.019555572040491</v>
+        <v>1.020821184377328</v>
       </c>
       <c r="L14">
-        <v>1.002196860805382</v>
+        <v>1.003362349060551</v>
       </c>
       <c r="M14">
-        <v>0.9960320340686052</v>
+        <v>0.9971985565041808</v>
       </c>
       <c r="N14">
-        <v>1.006075595804883</v>
+        <v>1.009706342709048</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024966843691206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02587739975657</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018130217475534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9761202067202903</v>
+        <v>0.9774652855541507</v>
       </c>
       <c r="D15">
-        <v>1.005008073770503</v>
+        <v>1.006265515304734</v>
       </c>
       <c r="E15">
-        <v>0.9873600949565999</v>
+        <v>0.9885212149581644</v>
       </c>
       <c r="F15">
-        <v>0.9812878350752103</v>
+        <v>0.9824494312116437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040169863832987</v>
+        <v>1.040831589378807</v>
       </c>
       <c r="J15">
-        <v>1.006363964178333</v>
+        <v>1.007649572369507</v>
       </c>
       <c r="K15">
-        <v>1.01976475297764</v>
+        <v>1.020998956212757</v>
       </c>
       <c r="L15">
-        <v>1.002451105894557</v>
+        <v>1.003589748367964</v>
       </c>
       <c r="M15">
-        <v>0.9964975336842666</v>
+        <v>0.9976362764281231</v>
       </c>
       <c r="N15">
-        <v>1.006156871934923</v>
+        <v>1.009721034093219</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025120698257261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026009612779953</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018167299027046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9787474178964706</v>
+        <v>0.9799213378807647</v>
       </c>
       <c r="D16">
-        <v>1.006741636410109</v>
+        <v>1.00782135292823</v>
       </c>
       <c r="E16">
-        <v>0.9893815102866146</v>
+        <v>0.9903942155448062</v>
       </c>
       <c r="F16">
-        <v>0.9845560568824739</v>
+        <v>0.9855634878458441</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040887240540414</v>
+        <v>1.041456149559285</v>
       </c>
       <c r="J16">
-        <v>1.007750798653505</v>
+        <v>1.008875456214225</v>
       </c>
       <c r="K16">
-        <v>1.020953902827229</v>
+        <v>1.022014544769921</v>
       </c>
       <c r="L16">
-        <v>1.003907918234895</v>
+        <v>1.004901903750608</v>
       </c>
       <c r="M16">
-        <v>0.9991723534134946</v>
+        <v>1.00016092304983</v>
       </c>
       <c r="N16">
-        <v>1.006620058623502</v>
+        <v>1.009838460719376</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025964699794265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026731189541971</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018377368349497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9803763642283623</v>
+        <v>0.981455350805158</v>
       </c>
       <c r="D17">
-        <v>1.007817510029338</v>
+        <v>1.00879456345629</v>
       </c>
       <c r="E17">
-        <v>0.9906372934049738</v>
+        <v>0.9915678621626269</v>
       </c>
       <c r="F17">
-        <v>0.9865810185201588</v>
+        <v>0.9875026678527217</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041327819056916</v>
+        <v>1.041843274957526</v>
       </c>
       <c r="J17">
-        <v>1.008610111870136</v>
+        <v>1.009645310378506</v>
       </c>
       <c r="K17">
-        <v>1.021689844452763</v>
+        <v>1.022650129456127</v>
       </c>
       <c r="L17">
-        <v>1.004811500751013</v>
+        <v>1.005725370450465</v>
       </c>
       <c r="M17">
-        <v>1.000828494381404</v>
+        <v>1.00173342722837</v>
       </c>
       <c r="N17">
-        <v>1.006907076633841</v>
+        <v>1.009948177717404</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026487670995269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027183445362722</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018508563464138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9813146310645376</v>
+        <v>0.9823432761700145</v>
       </c>
       <c r="D18">
-        <v>1.008433734240132</v>
+        <v>1.009354432371846</v>
       </c>
       <c r="E18">
-        <v>0.9913607363549082</v>
+        <v>0.9922478431358033</v>
       </c>
       <c r="F18">
-        <v>0.9877492820837986</v>
+        <v>0.988625241967249</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0415778662822</v>
+        <v>1.042064050337038</v>
       </c>
       <c r="J18">
-        <v>1.009102621036748</v>
+        <v>1.010090338646144</v>
       </c>
       <c r="K18">
-        <v>1.022108461256334</v>
+        <v>1.023013626348841</v>
       </c>
       <c r="L18">
-        <v>1.005330279888141</v>
+        <v>1.00620174417256</v>
       </c>
       <c r="M18">
-        <v>1.001782883465034</v>
+        <v>1.002643250294722</v>
       </c>
       <c r="N18">
-        <v>1.007070848633495</v>
+        <v>1.010024649209931</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026771863439971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027427529273232</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018582893528856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9816374379245327</v>
+        <v>0.9826495728676017</v>
       </c>
       <c r="D19">
-        <v>1.008648761090069</v>
+        <v>1.009550722376252</v>
       </c>
       <c r="E19">
-        <v>0.9916103561441887</v>
+        <v>0.9924832102980146</v>
       </c>
       <c r="F19">
-        <v>0.9881492910728863</v>
+        <v>0.9890102608937246</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041665337685781</v>
+        <v>1.042141801340963</v>
       </c>
       <c r="J19">
-        <v>1.009273768293915</v>
+        <v>1.010245905645396</v>
       </c>
       <c r="K19">
-        <v>1.022256105415059</v>
+        <v>1.023142939214256</v>
       </c>
       <c r="L19">
-        <v>1.005510163902837</v>
+        <v>1.006367719417421</v>
       </c>
       <c r="M19">
-        <v>1.002110106537123</v>
+        <v>1.002955848423247</v>
       </c>
       <c r="N19">
-        <v>1.00712833433265</v>
+        <v>1.010054645494552</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026882731290002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02752605563569</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018609813179182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,93 +1447,111 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802018884207934</v>
+        <v>0.9812905879134997</v>
       </c>
       <c r="D20">
-        <v>1.007701942297383</v>
+        <v>1.008689675069062</v>
       </c>
       <c r="E20">
-        <v>0.9905026387471977</v>
+        <v>0.9914416046710619</v>
       </c>
       <c r="F20">
-        <v>0.9863643624298617</v>
+        <v>0.987294801289949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041280618472991</v>
+        <v>1.041801627770522</v>
       </c>
       <c r="J20">
-        <v>1.008517919762107</v>
+        <v>1.009562276772831</v>
       </c>
       <c r="K20">
-        <v>1.021610700923919</v>
+        <v>1.022581428795832</v>
       </c>
       <c r="L20">
-        <v>1.004714569168777</v>
+        <v>1.005636631220461</v>
       </c>
       <c r="M20">
-        <v>1.000651291866833</v>
+        <v>1.001564796866603</v>
       </c>
       <c r="N20">
-        <v>1.006876225495417</v>
+        <v>1.009934810367537</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02643035940857</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027133388821412</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018494343364249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9754503166797329</v>
+        <v>0.9768607623179281</v>
       </c>
       <c r="D21">
-        <v>1.004568719868153</v>
+        <v>1.005886221617959</v>
       </c>
       <c r="E21">
-        <v>0.9868459276129145</v>
+        <v>0.9880642477610915</v>
       </c>
       <c r="F21">
-        <v>0.9804525035441232</v>
+        <v>0.9816720630970167</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039986970407699</v>
+        <v>1.040680438700968</v>
       </c>
       <c r="J21">
-        <v>1.006011557727172</v>
+        <v>1.007358826093447</v>
       </c>
       <c r="K21">
-        <v>1.019464050344389</v>
+        <v>1.020756929286391</v>
       </c>
       <c r="L21">
-        <v>1.002080868050291</v>
+        <v>1.003275330697468</v>
       </c>
       <c r="M21">
-        <v>0.9958139201225377</v>
+        <v>0.9970091869277595</v>
       </c>
       <c r="N21">
-        <v>1.006039659709666</v>
+        <v>1.009768310511745</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.024915832721342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025846976848001</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018118477827961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9723920425160008</v>
+        <v>0.9740091563808505</v>
       </c>
       <c r="D22">
-        <v>1.00255071288373</v>
+        <v>1.004080035262005</v>
       </c>
       <c r="E22">
-        <v>0.9844996448157091</v>
+        <v>0.985897222606578</v>
       </c>
       <c r="F22">
-        <v>0.9766455942872154</v>
+        <v>0.978052188664047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039137746282008</v>
+        <v>1.039941880874497</v>
       </c>
       <c r="J22">
-        <v>1.004393688910754</v>
+        <v>1.005934071554613</v>
       </c>
       <c r="K22">
-        <v>1.018071808441721</v>
+        <v>1.019571096859666</v>
       </c>
       <c r="L22">
-        <v>1.000384550120128</v>
+        <v>1.00175333257337</v>
       </c>
       <c r="M22">
-        <v>0.9926943512166961</v>
+        <v>0.9940713452660676</v>
       </c>
       <c r="N22">
-        <v>1.005498692985421</v>
+        <v>1.009647847024469</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023917745045418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024993543486463</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017870599122246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9740130249490175</v>
+        <v>0.9755084226633909</v>
       </c>
       <c r="D23">
-        <v>1.003615248308653</v>
+        <v>1.005023899451029</v>
       </c>
       <c r="E23">
-        <v>0.9857414653014043</v>
+        <v>0.9870332038215783</v>
       </c>
       <c r="F23">
-        <v>0.9786669835613443</v>
+        <v>0.9799638409909305</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03958650072518</v>
+        <v>1.04032738473247</v>
       </c>
       <c r="J23">
-        <v>1.005248592435452</v>
+        <v>1.006675153074844</v>
       </c>
       <c r="K23">
-        <v>1.018804265368562</v>
+        <v>1.02018596386217</v>
       </c>
       <c r="L23">
-        <v>1.001281279035081</v>
+        <v>1.002547105120004</v>
       </c>
       <c r="M23">
-        <v>0.9943503125136538</v>
+        <v>0.9956206569744183</v>
       </c>
       <c r="N23">
-        <v>1.005783565717421</v>
+        <v>1.009667599509988</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024425868990285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02541758107372</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017998037830942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9802698630342286</v>
+        <v>0.9813546540056377</v>
       </c>
       <c r="D24">
-        <v>1.007738985514499</v>
+        <v>1.008722180973754</v>
       </c>
       <c r="E24">
-        <v>0.9905535303151788</v>
+        <v>0.9914891555679872</v>
       </c>
       <c r="F24">
-        <v>0.9864537787314016</v>
+        <v>0.9873806009033345</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041294425747997</v>
+        <v>1.041813078079323</v>
       </c>
       <c r="J24">
-        <v>1.008549148088094</v>
+        <v>1.009589826592414</v>
       </c>
       <c r="K24">
-        <v>1.021631545384943</v>
+        <v>1.022597837340533</v>
       </c>
       <c r="L24">
-        <v>1.004748592567327</v>
+        <v>1.005667398038382</v>
       </c>
       <c r="M24">
-        <v>1.000723031957991</v>
+        <v>1.00163301182073</v>
       </c>
       <c r="N24">
-        <v>1.006885126800282</v>
+        <v>1.009936985206211</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026417341131754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.0271145678087</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018496447797595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9872687137525108</v>
+        <v>0.9880594561054273</v>
       </c>
       <c r="D25">
-        <v>1.012363826143161</v>
+        <v>1.012982221527026</v>
       </c>
       <c r="E25">
-        <v>0.9959693597117917</v>
+        <v>0.9966525439722961</v>
       </c>
       <c r="F25">
-        <v>0.9951457899126106</v>
+        <v>0.9958017896038999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043144896391964</v>
+        <v>1.043475413829399</v>
       </c>
       <c r="J25">
-        <v>1.012232266347035</v>
+        <v>1.012995459265121</v>
       </c>
       <c r="K25">
-        <v>1.02477319431009</v>
+        <v>1.025382293365641</v>
       </c>
       <c r="L25">
-        <v>1.008630570091215</v>
+        <v>1.009303048100496</v>
       </c>
       <c r="M25">
-        <v>1.007819931543215</v>
+        <v>1.008465628861895</v>
       </c>
       <c r="N25">
-        <v>1.008114506307314</v>
+        <v>1.010793292948249</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.02863580235096</v>
+        <v>1.029080151770839</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019068315170019</v>
       </c>
     </row>
   </sheetData>
